--- a/Semgrep Results/repo_bac_category_summary.xlsx
+++ b/Semgrep Results/repo_bac_category_summary.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rimaa\OneDrive\Desktop\EXJOBB\github_mining\findings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B0930-8FE6-41C9-8800-D275A0EF9F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7722EA-FBE2-4B56-B56F-2B3BF36E462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2764850A-305C-4A56-AAD5-90943F4A4600}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{2764850A-305C-4A56-AAD5-90943F4A4600}"/>
   </bookViews>
   <sheets>
     <sheet name="repo_bac_category_summary" sheetId="1" r:id="rId1"/>
+    <sheet name="4. Universal-React-Apollo-Regis" sheetId="5" r:id="rId2"/>
+    <sheet name="3. node_passport_login" sheetId="4" r:id="rId3"/>
+    <sheet name="2. React-Redux-Flask" sheetId="3" r:id="rId4"/>
+    <sheet name="1. node-express-mongodb-jwt-res" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>Repository</t>
   </si>
@@ -46,9 +50,6 @@
     <t>Unprotected Route, Misconfig</t>
   </si>
   <si>
-    <t>cross-origin</t>
-  </si>
-  <si>
     <t>IDOR, Unprotected Route</t>
   </si>
   <si>
@@ -122,13 +123,304 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>project.semgrep-rules.unprotected-routes.express-unprotected-endpoint</t>
+  </si>
+  <si>
+    <t>/project/repos/node-express-mongodb-jwt-rest-api-skeleton/app/routes/index.js</t>
+  </si>
+  <si>
+    <t>[BAC] Unprotected route detected Î“Ã‡Ã¶ No authentication middleware found.</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>['CWE-285: Improper Authorization']</t>
+  </si>
+  <si>
+    <t>['A01:2021 - Broken Access Control']</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>router.get('/', (req, res) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  res.render('index');</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semgrep flagged an unprotected route on line 27 of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>index.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which serves the root path (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Manual inspection confirmed this endpoint only renders a static landing page and does not handle any sensitive data or business logic. Since it is intended to be publicly accessible, this instance does not constitute a Broken Access Control (BAC) risk. This highlights a typical false positive in static analysis, where tools flag public endpoints lacking context about intended access policies.</t>
+    </r>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>/project/repos/React-Redux-Flask/static/server.js</t>
+  </si>
+  <si>
+    <t>app.get('*', function (req, res) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  res.sendFile(path.join(__dirname, 'index.html'));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semgrep detected an unprotected route on line 33 of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>static/server.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, where a wildcard route is defined to serve the front-end </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file. Manual inspection confirmed that this is a standard setup for single-page applications (SPA) using React Router. Since this endpoint does not expose or process sensitive data, it does not constitute a Broken Access Control issue. This illustrates a common false positive in static route analysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>/project/repos/node_passport_login/routes/users.js</t>
+  </si>
+  <si>
+    <t>project.semgrep-rules.misconfig.express-cookie-session-no-expires</t>
+  </si>
+  <si>
+    <t>/project/repos/node_passport_login/app.js</t>
+  </si>
+  <si>
+    <t>Default session middleware settings: `expires` not set. Use it to set expiration date for persistent cookies.</t>
+  </si>
+  <si>
+    <t>['CWE-522: Insufficiently Protected Credentials']</t>
+  </si>
+  <si>
+    <t>['A02:2017 - Broken Authentication', 'A04:2021 - Insecure Design']</t>
+  </si>
+  <si>
+    <t>project.semgrep-rules.misconfig.express-cookie-session-no-path</t>
+  </si>
+  <si>
+    <t>Default session middleware settings: `path` not set. It indicates the path of the cookie</t>
+  </si>
+  <si>
+    <t>project.semgrep-rules.misconfig.express-cookie-session-no-secure</t>
+  </si>
+  <si>
+    <t>Default session middleware settings: `secure` not set. It ensures the browser only sends the cookie over HTTPS.</t>
+  </si>
+  <si>
+    <t>unprotected route</t>
+  </si>
+  <si>
+    <t>misconfig</t>
+  </si>
+  <si>
+    <t>router.get('/login', forwardAuthenticated, (req, res) =&gt; res.render('login'));</t>
+  </si>
+  <si>
+    <t>router.get('/register', forwardAuthenticated, (req, res) =&gt; res.render('register'));</t>
+  </si>
+  <si>
+    <t>Login/Register pages, public, false positive</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Semgrep flagged insecure default session middleware configurations, such as missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>secure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>expires</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attributes for cookies. While these are not direct Broken Access Control vulnerabilities, they reduce the integrity of session handling. Notably, the absence of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>secure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> could lead to session hijacking in a non-HTTPS environment, undermining access controls.</t>
+    </r>
+  </si>
+  <si>
+    <t>pentest ?</t>
+  </si>
+  <si>
+    <t>UR: FP, missconfig: ?</t>
+  </si>
+  <si>
+    <t>IDOR</t>
+  </si>
+  <si>
+    <t>project.semgrep-rules.idor.idor-param-used</t>
+  </si>
+  <si>
+    <t>Potential IDOR: user-supplied parameter in route or query may access sensitive resources without access control checks.</t>
+  </si>
+  <si>
+    <t>CWE-639: Authorization Bypass Through User-Controlled Key</t>
+  </si>
+  <si>
+    <t>Broken Access Control</t>
+  </si>
+  <si>
+    <t>/project/repos/Universal-React-Apollo-Registration/server.js</t>
+  </si>
+  <si>
+    <t>app.get('/user-uploads/:file', function (req, res) {</t>
+  </si>
+  <si>
+    <t>app.get(['*/:param', '*'], (req, res) =&gt; {</t>
+  </si>
+  <si>
+    <t>app.post('/password-reset', (req, response) =&gt; {</t>
+  </si>
+  <si>
+    <t>app.post('/upload', function (req, res) {</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>fp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +554,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -605,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +915,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -664,15 +967,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -696,9 +1005,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -713,13 +1019,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37D38ADE-628F-41AB-893E-F6676AE479C2}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:D26" xr:uid="{37D38ADE-628F-41AB-893E-F6676AE479C2}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22726E4A-F6F3-4F49-B6E7-B7D886CFFA35}" name="No." dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4FEFB7BD-892C-4445-A29C-A8867F38EBC8}" name="Repository" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37D38ADE-628F-41AB-893E-F6676AE479C2}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E25" xr:uid="{37D38ADE-628F-41AB-893E-F6676AE479C2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{22726E4A-F6F3-4F49-B6E7-B7D886CFFA35}" name="No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4FEFB7BD-892C-4445-A29C-A8867F38EBC8}" name="Repository" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{D2D4298C-AF54-4992-9DA3-4EFA48134785}" name="BAC Categories" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CB8515BF-21DE-469E-B713-9374B141A94F}" name="# of Categories" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{CB8515BF-21DE-469E-B713-9374B141A94F}" name="# of Categories" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E774DF7E-F839-4FC9-AE7F-2150462464DE}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1042,23 +1349,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7618E3D-079F-4F5B-93F6-258D002362DE}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1069,8 +1377,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1083,8 +1394,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1097,8 +1411,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1111,22 +1428,26 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1134,13 +1455,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1153,8 +1475,9 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1167,8 +1490,9 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1176,27 +1500,29 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1204,13 +1530,14 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1223,8 +1550,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1232,13 +1560,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1246,13 +1575,14 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1260,13 +1590,14 @@
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1274,13 +1605,14 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1288,27 +1620,29 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1316,13 +1650,14 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1330,13 +1665,14 @@
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1349,8 +1685,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1363,8 +1700,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1377,8 +1715,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1386,13 +1725,14 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1400,25 +1740,12 @@
         <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,4 +1753,708 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78564D4-7F37-42B7-AF42-DD6B77C4E4E0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>162</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>194</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>207</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>242</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>116</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>116</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B9257-F626-448F-9179-EFCE71C13814}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90">
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D586DF54-8838-4479-BFE1-4432243D5157}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>35</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90">
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7454D1-673E-446F-8EF5-B2D41CB74F98}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>27</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>29</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60">
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>